--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_equal_a_alpha_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_equal_a_alpha_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.4905660377358491</v>
+      </c>
+      <c r="C3">
+        <v>0.5055679287305123</v>
+      </c>
+      <c r="D3">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="E3">
+        <v>0.4956521739130435</v>
+      </c>
+      <c r="F3">
+        <v>0.5186567164179104</v>
+      </c>
+      <c r="G3">
+        <v>0.497907949790795</v>
+      </c>
+      <c r="H3">
         <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.4965831435079727</v>
-      </c>
-      <c r="D3">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="E3">
-        <v>0.4989010989010989</v>
-      </c>
-      <c r="F3">
-        <v>0.4875</v>
-      </c>
-      <c r="G3">
-        <v>0.4925373134328358</v>
-      </c>
-      <c r="H3">
-        <v>0.506</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5342465753424658</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="C4">
-        <v>0.4953917050691244</v>
+        <v>0.5044444444444445</v>
       </c>
       <c r="D4">
-        <v>0.4754098360655737</v>
+        <v>0.5123456790123457</v>
       </c>
       <c r="E4">
-        <v>0.5051698670605613</v>
+        <v>0.4970588235294118</v>
       </c>
       <c r="F4">
-        <v>0.4899328859060403</v>
+        <v>0.4709677419354839</v>
       </c>
       <c r="G4">
-        <v>0.4899425287356322</v>
+        <v>0.4926470588235294</v>
       </c>
       <c r="H4">
-        <v>0.52</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5263157894736842</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="C5">
-        <v>0.4924406047516199</v>
+        <v>0.4968684759916493</v>
       </c>
       <c r="D5">
-        <v>0.4755244755244755</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="E5">
-        <v>0.5048010973936899</v>
+        <v>0.4973890339425587</v>
       </c>
       <c r="F5">
-        <v>0.4741379310344828</v>
+        <v>0.4476190476190476</v>
       </c>
       <c r="G5">
-        <v>0.4891165172855313</v>
+        <v>0.5069356872635561</v>
       </c>
       <c r="H5">
-        <v>0.518</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4818181818181818</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="C6">
-        <v>0.4969939879759519</v>
+        <v>0.4911242603550296</v>
       </c>
       <c r="D6">
-        <v>0.4690265486725664</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E6">
-        <v>0.503209242618742</v>
+        <v>0.4936548223350254</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="G6">
-        <v>0.4944512946979038</v>
+        <v>0.5024390243902439</v>
       </c>
       <c r="H6">
-        <v>0.51</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5555555555555556</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C7">
-        <v>0.5085066162570888</v>
+        <v>0.4910394265232975</v>
       </c>
       <c r="D7">
-        <v>0.4333333333333333</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E7">
-        <v>0.5006257822277848</v>
+        <v>0.4900497512437811</v>
       </c>
       <c r="F7">
-        <v>0.5384615384615384</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="G7">
-        <v>0.4927536231884058</v>
+        <v>0.5018007202881153</v>
       </c>
       <c r="H7">
-        <v>0.506</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5172413793103449</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C8">
-        <v>0.4948630136986301</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>0.4329896907216495</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="E8">
-        <v>0.5012345679012346</v>
+        <v>0.4914004914004914</v>
       </c>
       <c r="F8">
-        <v>0.5326086956521739</v>
+        <v>0.5057471264367817</v>
       </c>
       <c r="G8">
-        <v>0.4892086330935252</v>
+        <v>0.5096852300242131</v>
       </c>
       <c r="H8">
-        <v>0.506</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4351851851851852</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="C9">
-        <v>0.501577287066246</v>
+        <v>0.4899845916795069</v>
       </c>
       <c r="D9">
-        <v>0.4807692307692308</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E9">
-        <v>0.5012254901960784</v>
+        <v>0.4963054187192118</v>
       </c>
       <c r="F9">
-        <v>0.4827586206896552</v>
+        <v>0.5375</v>
       </c>
       <c r="G9">
-        <v>0.4915458937198068</v>
+        <v>0.5036407766990292</v>
       </c>
       <c r="H9">
-        <v>0.492</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.424</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C10">
-        <v>0.5116959064327485</v>
+        <v>0.4860499265785609</v>
       </c>
       <c r="D10">
-        <v>0.4693877551020408</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="E10">
-        <v>0.5018773466833542</v>
+        <v>0.5069182389937107</v>
       </c>
       <c r="F10">
-        <v>0.4698795180722892</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="G10">
-        <v>0.4963592233009709</v>
+        <v>0.5018495684340321</v>
       </c>
       <c r="H10">
-        <v>0.494</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4495412844036697</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C11">
-        <v>0.5121255349500713</v>
+        <v>0.4916897506925208</v>
       </c>
       <c r="D11">
-        <v>0.5378151260504201</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="E11">
-        <v>0.5089285714285714</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="F11">
-        <v>0.4315789473684211</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G11">
-        <v>0.4900744416873449</v>
+        <v>0.5037783375314862</v>
       </c>
       <c r="H11">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4793388429752066</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="C12">
-        <v>0.50199203187251</v>
+        <v>0.4921875</v>
       </c>
       <c r="D12">
-        <v>0.5245901639344263</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="E12">
-        <v>0.506578947368421</v>
+        <v>0.5083226632522407</v>
       </c>
       <c r="F12">
-        <v>0.4152542372881356</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="G12">
-        <v>0.4772151898734177</v>
+        <v>0.5025380710659898</v>
       </c>
       <c r="H12">
-        <v>0.516</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4912280701754386</v>
+        <v>0.5445544554455446</v>
       </c>
       <c r="C13">
-        <v>0.4937027707808564</v>
+        <v>0.4780487804878049</v>
       </c>
       <c r="D13">
-        <v>0.5483870967741935</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="E13">
-        <v>0.5148005148005148</v>
+        <v>0.5038167938931297</v>
       </c>
       <c r="F13">
-        <v>0.4594594594594595</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="G13">
-        <v>0.4841168996188056</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
-        <v>0.514</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4485981308411215</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="C14">
-        <v>0.4917061611374408</v>
+        <v>0.4873853211009174</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E14">
-        <v>0.514030612244898</v>
+        <v>0.4974683544303797</v>
       </c>
       <c r="F14">
-        <v>0.3789473684210526</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="G14">
-        <v>0.4719101123595505</v>
+        <v>0.4993726474278545</v>
       </c>
       <c r="H14">
-        <v>0.51</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4741379310344828</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="C15">
-        <v>0.4960362400906002</v>
+        <v>0.4924892703862661</v>
       </c>
       <c r="D15">
-        <v>0.6090909090909091</v>
+        <v>0.49</v>
       </c>
       <c r="E15">
-        <v>0.5076530612244898</v>
+        <v>0.4963054187192118</v>
       </c>
       <c r="F15">
-        <v>0.4444444444444444</v>
+        <v>0.5544554455445545</v>
       </c>
       <c r="G15">
-        <v>0.4774436090225564</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0.512</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4666666666666667</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C16">
-        <v>0.4919268030139936</v>
+        <v>0.491353001017294</v>
       </c>
       <c r="D16">
-        <v>0.5423728813559322</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="E16">
-        <v>0.5126903553299492</v>
+        <v>0.5042944785276073</v>
       </c>
       <c r="F16">
-        <v>0.5306122448979592</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="G16">
-        <v>0.4727047146401985</v>
+        <v>0.5012224938875306</v>
       </c>
       <c r="H16">
-        <v>0.508</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,22 +816,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4956521739130435</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="C17">
-        <v>0.4923702950152594</v>
+        <v>0.4891089108910891</v>
       </c>
       <c r="D17">
-        <v>0.5656565656565656</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="E17">
-        <v>0.5267080745341615</v>
+        <v>0.5093167701863354</v>
       </c>
       <c r="F17">
-        <v>0.4823529411764706</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="G17">
-        <v>0.4693140794223827</v>
+        <v>0.5042944785276073</v>
       </c>
       <c r="H17">
         <v>0.508</v>
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4770642201834863</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="C18">
-        <v>0.4941747572815534</v>
+        <v>0.4850187265917603</v>
       </c>
       <c r="D18">
-        <v>0.4939759036144578</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="E18">
-        <v>0.5233990147783252</v>
+        <v>0.51</v>
       </c>
       <c r="F18">
-        <v>0.4186046511627907</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="G18">
-        <v>0.4680337756332931</v>
+        <v>0.4920049200492005</v>
       </c>
       <c r="H18">
-        <v>0.514</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.462962962962963</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="C19">
-        <v>0.4967562557924003</v>
+        <v>0.4857651245551601</v>
       </c>
       <c r="D19">
-        <v>0.504950495049505</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E19">
-        <v>0.5326757090012331</v>
+        <v>0.5067985166872683</v>
       </c>
       <c r="F19">
-        <v>0.5104166666666666</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="G19">
-        <v>0.4779951100244499</v>
+        <v>0.4884848484848485</v>
       </c>
       <c r="H19">
-        <v>0.508</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5213675213675214</v>
+        <v>0.49</v>
       </c>
       <c r="C20">
-        <v>0.4923766816143498</v>
+        <v>0.4919831223628692</v>
       </c>
       <c r="D20">
-        <v>0.4854368932038835</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="E20">
-        <v>0.5304568527918782</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="F20">
-        <v>0.5208333333333334</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="G20">
-        <v>0.4837092731829574</v>
+        <v>0.4762484774665043</v>
       </c>
       <c r="H20">
-        <v>0.502</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4553571428571428</v>
+        <v>0.5663716814159292</v>
       </c>
       <c r="C21">
-        <v>0.4814495254529767</v>
+        <v>0.4933993399339934</v>
       </c>
       <c r="D21">
-        <v>0.5185185185185185</v>
+        <v>0.46</v>
       </c>
       <c r="E21">
-        <v>0.5315656565656566</v>
+        <v>0.5061881188118812</v>
       </c>
       <c r="F21">
-        <v>0.5339805825242718</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="G21">
-        <v>0.4838308457711443</v>
+        <v>0.4775757575757576</v>
       </c>
       <c r="H21">
-        <v>0.496</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5217391304347826</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C22">
-        <v>0.4854771784232365</v>
+        <v>0.4862903225806451</v>
       </c>
       <c r="D22">
-        <v>0.58</v>
+        <v>0.4886363636363636</v>
       </c>
       <c r="E22">
-        <v>0.5359394703656999</v>
+        <v>0.5100250626566416</v>
       </c>
       <c r="F22">
-        <v>0.5632183908045977</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="G22">
-        <v>0.4826302729528536</v>
+        <v>0.47625</v>
       </c>
       <c r="H22">
-        <v>0.49</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4403669724770642</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C23">
-        <v>0.4718649517684887</v>
+        <v>0.4984276729559748</v>
       </c>
       <c r="D23">
-        <v>0.5405405405405406</v>
+        <v>0.5346534653465347</v>
       </c>
       <c r="E23">
-        <v>0.5327455919395466</v>
+        <v>0.5136476426799007</v>
       </c>
       <c r="F23">
-        <v>0.5760869565217391</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="G23">
-        <v>0.4802469135802469</v>
+        <v>0.4886934673366834</v>
       </c>
       <c r="H23">
-        <v>0.494</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4901960784313725</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C24">
-        <v>0.4846390168970814</v>
+        <v>0.4969834087481146</v>
       </c>
       <c r="D24">
-        <v>0.5892857142857143</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="E24">
-        <v>0.5378787878787878</v>
+        <v>0.5118601747815231</v>
       </c>
       <c r="F24">
-        <v>0.53</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="G24">
-        <v>0.4810281517747858</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="H24">
-        <v>0.49</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5247524752475248</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>0.4798534798534799</v>
+        <v>0.4970887918486172</v>
       </c>
       <c r="D25">
-        <v>0.44</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="E25">
-        <v>0.5391304347826087</v>
+        <v>0.5074441687344913</v>
       </c>
       <c r="F25">
-        <v>0.5402298850574713</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G25">
-        <v>0.4909090909090909</v>
+        <v>0.4869888475836431</v>
       </c>
       <c r="H25">
-        <v>0.484</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.54</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C26">
-        <v>0.479181369089626</v>
+        <v>0.492589978828511</v>
       </c>
       <c r="D26">
-        <v>0.4659090909090909</v>
+        <v>0.4536082474226804</v>
       </c>
       <c r="E26">
-        <v>0.5458996328029376</v>
+        <v>0.5075187969924813</v>
       </c>
       <c r="F26">
-        <v>0.5666666666666667</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G26">
-        <v>0.4970202622169249</v>
+        <v>0.4842767295597484</v>
       </c>
       <c r="H26">
-        <v>0.468</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5048543689320388</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C27">
-        <v>0.4793388429752066</v>
+        <v>0.4979508196721312</v>
       </c>
       <c r="D27">
-        <v>0.4418604651162791</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="E27">
-        <v>0.540272614622057</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="F27">
-        <v>0.5555555555555556</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="G27">
-        <v>0.4926289926289926</v>
+        <v>0.4825870646766169</v>
       </c>
       <c r="H27">
-        <v>0.478</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5378151260504201</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="C28">
-        <v>0.4838926174496644</v>
+        <v>0.4940867279894875</v>
       </c>
       <c r="D28">
-        <v>0.5046728971962616</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E28">
-        <v>0.5369211514392991</v>
+        <v>0.4987468671679198</v>
       </c>
       <c r="F28">
-        <v>0.5555555555555556</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G28">
-        <v>0.4938271604938271</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="H28">
-        <v>0.476</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.495575221238938</v>
+        <v>0.5363636363636364</v>
       </c>
       <c r="C29">
-        <v>0.4830287206266319</v>
+        <v>0.4898089171974522</v>
       </c>
       <c r="D29">
-        <v>0.4716981132075472</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E29">
-        <v>0.5248756218905473</v>
+        <v>0.4987562189054726</v>
       </c>
       <c r="F29">
-        <v>0.5181818181818182</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="G29">
-        <v>0.5</v>
+        <v>0.4938423645320197</v>
       </c>
       <c r="H29">
-        <v>0.462</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.4516129032258064</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="C30">
-        <v>0.4854614412136536</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="D30">
-        <v>0.425</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="E30">
-        <v>0.5229244114002478</v>
+        <v>0.4962593516209476</v>
       </c>
       <c r="F30">
-        <v>0.5698924731182796</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G30">
-        <v>0.5160493827160494</v>
+        <v>0.5073170731707317</v>
       </c>
       <c r="H30">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.4245283018867925</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="C31">
-        <v>0.4858177429088715</v>
+        <v>0.4911639244363193</v>
       </c>
       <c r="D31">
-        <v>0.46875</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="E31">
-        <v>0.5169902912621359</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="F31">
-        <v>0.5327102803738317</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="G31">
-        <v>0.5219512195121951</v>
+        <v>0.5129151291512916</v>
       </c>
       <c r="H31">
-        <v>0.454</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4326923076923077</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>0.4860864416814683</v>
+        <v>0.4926253687315634</v>
       </c>
       <c r="D32">
-        <v>0.5116279069767442</v>
+        <v>0.5229357798165137</v>
       </c>
       <c r="E32">
-        <v>0.5148514851485149</v>
+        <v>0.5018963337547409</v>
       </c>
       <c r="F32">
-        <v>0.6046511627906976</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="G32">
-        <v>0.5224438902743143</v>
+        <v>0.515970515970516</v>
       </c>
       <c r="H32">
-        <v>0.466</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="C33">
-        <v>0.4824611845888442</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="D33">
-        <v>0.5148514851485149</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="E33">
-        <v>0.5165238678090576</v>
+        <v>0.5032010243277849</v>
       </c>
       <c r="F33">
-        <v>0.5730337078651685</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="G33">
-        <v>0.5213675213675214</v>
+        <v>0.5185643564356436</v>
       </c>
       <c r="H33">
-        <v>0.468</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5454545454545454</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C34">
-        <v>0.4762171236709569</v>
+        <v>0.491849353569421</v>
       </c>
       <c r="D34">
-        <v>0.5208333333333334</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="E34">
-        <v>0.5217391304347826</v>
+        <v>0.5031525851197982</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="G34">
-        <v>0.5175757575757576</v>
+        <v>0.519159456118665</v>
       </c>
       <c r="H34">
-        <v>0.472</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.495049504950495</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C35">
-        <v>0.4735982580293958</v>
+        <v>0.4923497267759563</v>
       </c>
       <c r="D35">
-        <v>0.5876288659793815</v>
+        <v>0.4777777777777778</v>
       </c>
       <c r="E35">
-        <v>0.5222222222222223</v>
+        <v>0.5037878787878788</v>
       </c>
       <c r="F35">
-        <v>0.5384615384615384</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="G35">
-        <v>0.5272067714631197</v>
+        <v>0.510353227771011</v>
       </c>
       <c r="H35">
-        <v>0.476</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.49</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="C36">
-        <v>0.4752791068580542</v>
+        <v>0.4889844169801182</v>
       </c>
       <c r="D36">
-        <v>0.5319148936170213</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E36">
-        <v>0.5302843016069221</v>
+        <v>0.5049627791563276</v>
       </c>
       <c r="F36">
-        <v>0.5555555555555556</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G36">
-        <v>0.5238095238095238</v>
+        <v>0.5073170731707317</v>
       </c>
       <c r="H36">
-        <v>0.484</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4639175257731959</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="C37">
-        <v>0.4792099792099792</v>
+        <v>0.4864016736401673</v>
       </c>
       <c r="D37">
-        <v>0.5053763440860215</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="E37">
-        <v>0.5327564894932015</v>
+        <v>0.5104808877928483</v>
       </c>
       <c r="F37">
-        <v>0.4526315789473684</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="G37">
-        <v>0.5225885225885226</v>
+        <v>0.5048309178743962</v>
       </c>
       <c r="H37">
-        <v>0.494</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4545454545454545</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C38">
-        <v>0.4829862874555612</v>
+        <v>0.4885379521141111</v>
       </c>
       <c r="D38">
-        <v>0.494949494949495</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="E38">
-        <v>0.5384615384615384</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="F38">
-        <v>0.5416666666666666</v>
+        <v>0.4659090909090909</v>
       </c>
       <c r="G38">
-        <v>0.5215782983970407</v>
+        <v>0.5024630541871922</v>
       </c>
       <c r="H38">
-        <v>0.512</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4851485148514851</v>
+        <v>0.5045045045045045</v>
       </c>
       <c r="C39">
-        <v>0.4863773965691221</v>
+        <v>0.4864457831325301</v>
       </c>
       <c r="D39">
-        <v>0.4615384615384616</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="E39">
-        <v>0.5441741357234315</v>
+        <v>0.4993742177722152</v>
       </c>
       <c r="F39">
-        <v>0.5087719298245614</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="G39">
-        <v>0.5195954487989887</v>
+        <v>0.5104551045510455</v>
       </c>
       <c r="H39">
-        <v>0.516</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="C40">
-        <v>0.4828953891918691</v>
+        <v>0.4879369768586903</v>
       </c>
       <c r="D40">
-        <v>0.4596774193548387</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="E40">
-        <v>0.5496083550913838</v>
+        <v>0.5031446540880503</v>
       </c>
       <c r="F40">
-        <v>0.4700854700854701</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="G40">
-        <v>0.5240572171651495</v>
+        <v>0.5006195786864932</v>
       </c>
       <c r="H40">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.5411764705882353</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C41">
-        <v>0.4840733590733591</v>
+        <v>0.4897079942556247</v>
       </c>
       <c r="D41">
-        <v>0.4857142857142857</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="E41">
-        <v>0.5431937172774869</v>
+        <v>0.5043263288009888</v>
       </c>
       <c r="F41">
-        <v>0.4786324786324787</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="G41">
-        <v>0.5288092189500641</v>
+        <v>0.5</v>
       </c>
       <c r="H41">
-        <v>0.52</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.5392156862745098</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="C42">
-        <v>0.4834593572778828</v>
+        <v>0.4896519285042333</v>
       </c>
       <c r="D42">
-        <v>0.4954954954954955</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="E42">
-        <v>0.5427069645203679</v>
+        <v>0.5</v>
       </c>
       <c r="F42">
-        <v>0.4574468085106383</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="G42">
-        <v>0.5209125475285171</v>
+        <v>0.4993849938499385</v>
       </c>
       <c r="H42">
-        <v>0.514</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.5567010309278351</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="C43">
-        <v>0.4843531060252219</v>
+        <v>0.4910755148741419</v>
       </c>
       <c r="D43">
-        <v>0.4545454545454545</v>
+        <v>0.49</v>
       </c>
       <c r="E43">
-        <v>0.5335018963337548</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="F43">
-        <v>0.4736842105263158</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="G43">
-        <v>0.5135135135135135</v>
+        <v>0.5024271844660194</v>
       </c>
       <c r="H43">
-        <v>0.528</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="C44">
-        <v>0.4829931972789115</v>
+        <v>0.4919354838709677</v>
       </c>
       <c r="D44">
-        <v>0.3711340206185567</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="E44">
-        <v>0.5308641975308642</v>
+        <v>0.5080147965474723</v>
       </c>
       <c r="F44">
-        <v>0.5222222222222223</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="G44">
-        <v>0.5084337349397591</v>
+        <v>0.5006119951040392</v>
       </c>
       <c r="H44">
-        <v>0.532</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5309734513274337</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="C45">
-        <v>0.4842767295597484</v>
+        <v>0.492988606485539</v>
       </c>
       <c r="D45">
-        <v>0.4050632911392405</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="E45">
-        <v>0.5277435265104808</v>
+        <v>0.5116851168511685</v>
       </c>
       <c r="F45">
+        <v>0.4835164835164835</v>
+      </c>
+      <c r="G45">
+        <v>0.5072639225181598</v>
+      </c>
+      <c r="H45">
         <v>0.5</v>
-      </c>
-      <c r="G45">
-        <v>0.4981729598051157</v>
-      </c>
-      <c r="H45">
-        <v>0.552</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5043478260869565</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C46">
-        <v>0.4856891237340379</v>
+        <v>0.4924601464885825</v>
       </c>
       <c r="D46">
-        <v>0.4666666666666667</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="E46">
-        <v>0.5207823960880196</v>
+        <v>0.5185643564356436</v>
       </c>
       <c r="F46">
-        <v>0.5445544554455446</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="G46">
-        <v>0.5066505441354293</v>
+        <v>0.5177914110429448</v>
       </c>
       <c r="H46">
-        <v>0.544</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4915254237288136</v>
+        <v>0.46875</v>
       </c>
       <c r="C47">
-        <v>0.4880486744893525</v>
+        <v>0.4932260795935648</v>
       </c>
       <c r="D47">
-        <v>0.4666666666666667</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="E47">
-        <v>0.5181932245922208</v>
+        <v>0.5203955500618047</v>
       </c>
       <c r="F47">
-        <v>0.5757575757575758</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="G47">
-        <v>0.513681592039801</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="H47">
-        <v>0.534</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.4957983193277311</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C48">
-        <v>0.4880546075085324</v>
+        <v>0.4931620389556569</v>
       </c>
       <c r="D48">
-        <v>0.4722222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E48">
-        <v>0.5145018915510718</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="F48">
-        <v>0.5523809523809524</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="G48">
-        <v>0.5087281795511222</v>
+        <v>0.5139393939393939</v>
       </c>
       <c r="H48">
-        <v>0.522</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4770642201834863</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="C49">
-        <v>0.4897015552753258</v>
+        <v>0.4916564916564917</v>
       </c>
       <c r="D49">
-        <v>0.4766355140186916</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="E49">
-        <v>0.5164141414141414</v>
+        <v>0.5229813664596273</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="G49">
-        <v>0.5132075471698113</v>
+        <v>0.5121654501216545</v>
       </c>
       <c r="H49">
-        <v>0.518</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4313725490196079</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C50">
-        <v>0.4898718478710211</v>
+        <v>0.4916267942583732</v>
       </c>
       <c r="D50">
-        <v>0.5048543689320388</v>
+        <v>0.4190476190476191</v>
       </c>
       <c r="E50">
-        <v>0.5171537484116899</v>
+        <v>0.5129469790382244</v>
       </c>
       <c r="F50">
-        <v>0.4943820224719101</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="G50">
-        <v>0.511742892459827</v>
+        <v>0.5121359223300971</v>
       </c>
       <c r="H50">
-        <v>0.518</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4915254237288136</v>
+        <v>0.4742268041237113</v>
       </c>
       <c r="C51">
-        <v>0.4941366761019005</v>
+        <v>0.4938807737860245</v>
       </c>
       <c r="D51">
-        <v>0.5614035087719298</v>
+        <v>0.42</v>
       </c>
       <c r="E51">
-        <v>0.5056320400500626</v>
+        <v>0.5227848101265823</v>
       </c>
       <c r="F51">
-        <v>0.5543478260869565</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="G51">
-        <v>0.511543134872418</v>
+        <v>0.50920245398773</v>
       </c>
       <c r="H51">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.4869565217391305</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="C52">
-        <v>0.4910179640718563</v>
+        <v>0.4929961089494164</v>
       </c>
       <c r="D52">
-        <v>0.5229357798165137</v>
+        <v>0.4336283185840708</v>
       </c>
       <c r="E52">
-        <v>0.5050251256281407</v>
+        <v>0.5272496831432193</v>
       </c>
       <c r="F52">
-        <v>0.5368421052631579</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="G52">
-        <v>0.508495145631068</v>
+        <v>0.5080346106304079</v>
       </c>
       <c r="H52">
-        <v>0.518</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.49</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C53">
-        <v>0.4908524717789023</v>
+        <v>0.4969325153374233</v>
       </c>
       <c r="D53">
-        <v>0.53</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="E53">
-        <v>0.5012254901960784</v>
+        <v>0.5339308578745199</v>
       </c>
       <c r="F53">
-        <v>0.5168539325842697</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="G53">
-        <v>0.5119331742243437</v>
+        <v>0.5111940298507462</v>
       </c>
       <c r="H53">
-        <v>0.52</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5217391304347826</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="C54">
-        <v>0.4918344094189138</v>
+        <v>0.4948998866641481</v>
       </c>
       <c r="D54">
-        <v>0.4936708860759494</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="E54">
-        <v>0.5006031363088058</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="F54">
-        <v>0.5</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="G54">
-        <v>0.5135135135135135</v>
+        <v>0.5068664169787765</v>
       </c>
       <c r="H54">
-        <v>0.524</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.4639175257731959</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="C55">
-        <v>0.4904744116548375</v>
+        <v>0.49663928304705</v>
       </c>
       <c r="D55">
-        <v>0.4698795180722892</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="E55">
-        <v>0.5072639225181598</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="F55">
-        <v>0.5072463768115942</v>
+        <v>0.5</v>
       </c>
       <c r="G55">
-        <v>0.5178997613365155</v>
+        <v>0.5074441687344913</v>
       </c>
       <c r="H55">
-        <v>0.51</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4479166666666667</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="C56">
-        <v>0.4912930715079659</v>
+        <v>0.4983510443385856</v>
       </c>
       <c r="D56">
-        <v>0.5208333333333334</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="E56">
-        <v>0.5193026151930261</v>
+        <v>0.5228677379480841</v>
       </c>
       <c r="F56">
-        <v>0.4698795180722892</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="G56">
-        <v>0.5187878787878788</v>
+        <v>0.4969097651421508</v>
       </c>
       <c r="H56">
-        <v>0.508</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4946236559139785</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="C57">
-        <v>0.4934497816593886</v>
+        <v>0.5012549300824668</v>
       </c>
       <c r="D57">
-        <v>0.5299145299145299</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="E57">
-        <v>0.5106382978723404</v>
+        <v>0.5171568627450981</v>
       </c>
       <c r="F57">
-        <v>0.45</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="G57">
-        <v>0.5220048899755502</v>
+        <v>0.5</v>
       </c>
       <c r="H57">
-        <v>0.508</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.49</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C58">
-        <v>0.4915981408652128</v>
+        <v>0.4994682736618221</v>
       </c>
       <c r="D58">
-        <v>0.4339622641509434</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="E58">
-        <v>0.5132743362831859</v>
+        <v>0.5217932752179327</v>
       </c>
       <c r="F58">
-        <v>0.5697674418604651</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G58">
-        <v>0.5184729064039408</v>
+        <v>0.5060679611650486</v>
       </c>
       <c r="H58">
-        <v>0.506</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5208333333333334</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="C59">
-        <v>0.4925690021231423</v>
+        <v>0.4986139986139986</v>
       </c>
       <c r="D59">
-        <v>0.4326923076923077</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="E59">
-        <v>0.5257214554579673</v>
+        <v>0.5128834355828221</v>
       </c>
       <c r="F59">
-        <v>0.5164835164835165</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="G59">
-        <v>0.5085158150851582</v>
+        <v>0.5078031212484994</v>
       </c>
       <c r="H59">
-        <v>0.502</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4583333333333333</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C60">
-        <v>0.4914841849148419</v>
+        <v>0.4986235375086029</v>
       </c>
       <c r="D60">
-        <v>0.4343434343434344</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="E60">
-        <v>0.5242236024844721</v>
+        <v>0.516209476309227</v>
       </c>
       <c r="F60">
-        <v>0.4946236559139785</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="G60">
-        <v>0.51278928136419</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="H60">
-        <v>0.508</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4615384615384616</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="C61">
-        <v>0.4946935980828484</v>
+        <v>0.497107859816264</v>
       </c>
       <c r="D61">
-        <v>0.405940594059406</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="E61">
-        <v>0.5246305418719212</v>
+        <v>0.5100502512562815</v>
       </c>
       <c r="F61">
-        <v>0.5050505050505051</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="G61">
-        <v>0.5140073081607796</v>
+        <v>0.5067817509247842</v>
       </c>
       <c r="H61">
-        <v>0.506</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4909090909090909</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="C62">
-        <v>0.4962812711291413</v>
+        <v>0.4994957983193277</v>
       </c>
       <c r="D62">
-        <v>0.45</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="E62">
-        <v>0.5241635687732342</v>
+        <v>0.5081761006289308</v>
       </c>
       <c r="F62">
-        <v>0.4719101123595505</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="G62">
-        <v>0.5116851168511685</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="H62">
-        <v>0.518</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5132743362831859</v>
+        <v>0.5</v>
       </c>
       <c r="C63">
-        <v>0.4949866310160428</v>
+        <v>0.4979986657771848</v>
       </c>
       <c r="D63">
-        <v>0.4631578947368421</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E63">
-        <v>0.5181023720349563</v>
+        <v>0.5025641025641026</v>
       </c>
       <c r="F63">
-        <v>0.5111111111111111</v>
+        <v>0.4818181818181818</v>
       </c>
       <c r="G63">
-        <v>0.5036764705882353</v>
+        <v>0.5050761421319797</v>
       </c>
       <c r="H63">
-        <v>0.532</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>0.5752212389380531</v>
       </c>
       <c r="C64">
-        <v>0.496044825313118</v>
+        <v>0.4988437396762471</v>
       </c>
       <c r="D64">
-        <v>0.4622641509433962</v>
+        <v>0.5126050420168067</v>
       </c>
       <c r="E64">
-        <v>0.513681592039801</v>
+        <v>0.4968394437420986</v>
       </c>
       <c r="F64">
-        <v>0.5053763440860215</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="G64">
-        <v>0.4993865030674847</v>
+        <v>0.5012755102040817</v>
       </c>
       <c r="H64">
-        <v>0.526</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5185185185185185</v>
+        <v>0.5346534653465347</v>
       </c>
       <c r="C65">
-        <v>0.4977302204928664</v>
+        <v>0.4951235370611183</v>
       </c>
       <c r="D65">
-        <v>0.4351851851851852</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="E65">
-        <v>0.5168119551681195</v>
+        <v>0.4943109987357775</v>
       </c>
       <c r="F65">
-        <v>0.5445544554455446</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="G65">
-        <v>0.5036407766990292</v>
+        <v>0.4987437185929648</v>
       </c>
       <c r="H65">
-        <v>0.528</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5040650406504065</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="C66">
-        <v>0.4980657640232108</v>
+        <v>0.4961661341853035</v>
       </c>
       <c r="D66">
-        <v>0.4095238095238095</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="E66">
-        <v>0.5155666251556662</v>
+        <v>0.4956085319949812</v>
       </c>
       <c r="F66">
-        <v>0.451219512195122</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="G66">
-        <v>0.503052503052503</v>
+        <v>0.5012406947890818</v>
       </c>
       <c r="H66">
-        <v>0.516</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.4761904761904762</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C67">
-        <v>0.4977791878172589</v>
+        <v>0.4962240402769037</v>
       </c>
       <c r="D67">
-        <v>0.4444444444444444</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="E67">
-        <v>0.5145018915510718</v>
+        <v>0.4944237918215613</v>
       </c>
       <c r="F67">
-        <v>0.4705882352941176</v>
+        <v>0.4747474747474748</v>
       </c>
       <c r="G67">
-        <v>0.5078979343863913</v>
+        <v>0.5</v>
       </c>
       <c r="H67">
-        <v>0.524</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.4141414141414141</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C68">
-        <v>0.4979706525132688</v>
+        <v>0.4948837209302326</v>
       </c>
       <c r="D68">
-        <v>0.4824561403508772</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="E68">
-        <v>0.5050632911392405</v>
+        <v>0.4975308641975308</v>
       </c>
       <c r="F68">
-        <v>0.5054945054945055</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G68">
-        <v>0.5111386138613861</v>
+        <v>0.5067484662576687</v>
       </c>
       <c r="H68">
-        <v>0.514</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.4326923076923077</v>
+        <v>0.5360824742268041</v>
       </c>
       <c r="C69">
-        <v>0.4995374653098982</v>
+        <v>0.4964713102178582</v>
       </c>
       <c r="D69">
-        <v>0.5130434782608696</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="E69">
-        <v>0.4980645161290322</v>
+        <v>0.5036945812807881</v>
       </c>
       <c r="F69">
-        <v>0.4807692307692308</v>
+        <v>0.4</v>
       </c>
       <c r="G69">
-        <v>0.5074812967581047</v>
+        <v>0.5030599755201959</v>
       </c>
       <c r="H69">
-        <v>0.512</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4747474747474748</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="C70">
-        <v>0.4995414246407827</v>
+        <v>0.4959128065395095</v>
       </c>
       <c r="D70">
-        <v>0.4915254237288136</v>
+        <v>0.4678899082568808</v>
       </c>
       <c r="E70">
-        <v>0.4980595084087969</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="F70">
-        <v>0.5192307692307693</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="G70">
-        <v>0.5132743362831859</v>
+        <v>0.4981773997569867</v>
       </c>
       <c r="H70">
-        <v>0.512</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.4519230769230769</v>
+        <v>0.5504587155963303</v>
       </c>
       <c r="C71">
-        <v>0.4978902953586498</v>
+        <v>0.4966927239927841</v>
       </c>
       <c r="D71">
-        <v>0.4615384615384616</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E71">
-        <v>0.491698595146871</v>
+        <v>0.5076335877862596</v>
       </c>
       <c r="F71">
-        <v>0.5047619047619047</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="G71">
-        <v>0.5074812967581047</v>
+        <v>0.4858895705521473</v>
       </c>
       <c r="H71">
-        <v>0.512</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5428571428571428</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="C72">
-        <v>0.4976218787158145</v>
+        <v>0.4970202622169249</v>
       </c>
       <c r="D72">
-        <v>0.4811320754716981</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="E72">
-        <v>0.4942965779467681</v>
+        <v>0.5012658227848101</v>
       </c>
       <c r="F72">
-        <v>0.6086956521739131</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="G72">
-        <v>0.5061124694376528</v>
+        <v>0.4944375772558715</v>
       </c>
       <c r="H72">
-        <v>0.508</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5428571428571428</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="C73">
-        <v>0.4936894628705606</v>
+        <v>0.5</v>
       </c>
       <c r="D73">
-        <v>0.5463917525773195</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E73">
-        <v>0.4919653893695921</v>
+        <v>0.5043914680050188</v>
       </c>
       <c r="F73">
-        <v>0.5591397849462365</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="G73">
-        <v>0.5018094089264173</v>
+        <v>0.4981458590852905</v>
       </c>
       <c r="H73">
-        <v>0.496</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,22 +2298,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5514018691588785</v>
+        <v>0.5</v>
       </c>
       <c r="C74">
-        <v>0.4956445993031359</v>
+        <v>0.4985498839907193</v>
       </c>
       <c r="D74">
-        <v>0.5918367346938775</v>
+        <v>0.5</v>
       </c>
       <c r="E74">
-        <v>0.4975124378109453</v>
+        <v>0.5044136191677175</v>
       </c>
       <c r="F74">
-        <v>0.5444444444444444</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G74">
-        <v>0.5190184049079755</v>
+        <v>0.4987684729064039</v>
       </c>
       <c r="H74">
         <v>0.482</v>
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5042735042735043</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="C75">
-        <v>0.4942528735632184</v>
+        <v>0.4966982486362331</v>
       </c>
       <c r="D75">
-        <v>0.4666666666666667</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="E75">
-        <v>0.4912280701754386</v>
+        <v>0.4975062344139651</v>
       </c>
       <c r="F75">
-        <v>0.4361702127659575</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="G75">
-        <v>0.5233990147783252</v>
+        <v>0.4957780458383595</v>
       </c>
       <c r="H75">
-        <v>0.48</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5039370078740157</v>
+        <v>0.5</v>
       </c>
       <c r="C76">
-        <v>0.4954415954415954</v>
+        <v>0.4960339943342776</v>
       </c>
       <c r="D76">
-        <v>0.4742268041237113</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="E76">
-        <v>0.495575221238938</v>
+        <v>0.5012468827930174</v>
       </c>
       <c r="F76">
-        <v>0.49</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="G76">
-        <v>0.5242236024844721</v>
+        <v>0.4993968636911942</v>
       </c>
       <c r="H76">
-        <v>0.476</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4796747967479675</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="C77">
-        <v>0.4940744920993228</v>
+        <v>0.4959235310655046</v>
       </c>
       <c r="D77">
-        <v>0.4646464646464646</v>
+        <v>0.54</v>
       </c>
       <c r="E77">
-        <v>0.5006195786864932</v>
+        <v>0.4949748743718593</v>
       </c>
       <c r="F77">
-        <v>0.5576923076923077</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G77">
-        <v>0.5186104218362283</v>
+        <v>0.5107655502392344</v>
       </c>
       <c r="H77">
-        <v>0.482</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.4715447154471545</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="C78">
-        <v>0.4941307993292342</v>
+        <v>0.4956956400999722</v>
       </c>
       <c r="D78">
-        <v>0.5268817204301075</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="E78">
-        <v>0.5024937655860349</v>
+        <v>0.4968710888610763</v>
       </c>
       <c r="F78">
-        <v>0.4672897196261682</v>
+        <v>0.4239130434782609</v>
       </c>
       <c r="G78">
-        <v>0.5168119551681195</v>
+        <v>0.51145958986731</v>
       </c>
       <c r="H78">
-        <v>0.488</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.4957983193277311</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="C79">
-        <v>0.4930747922437673</v>
+        <v>0.4954607977991747</v>
       </c>
       <c r="D79">
-        <v>0.580952380952381</v>
+        <v>0.5436893203883495</v>
       </c>
       <c r="E79">
-        <v>0.4987531172069826</v>
+        <v>0.4981179422835634</v>
       </c>
       <c r="F79">
-        <v>0.4705882352941176</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="G79">
-        <v>0.5263157894736842</v>
+        <v>0.5091799265605875</v>
       </c>
       <c r="H79">
-        <v>0.49</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5132743362831859</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="C80">
-        <v>0.4913863822805578</v>
+        <v>0.4959546925566343</v>
       </c>
       <c r="D80">
-        <v>0.5981308411214953</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E80">
-        <v>0.4975</v>
+        <v>0.4939024390243902</v>
       </c>
       <c r="F80">
-        <v>0.4851485148514851</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="G80">
-        <v>0.5327564894932015</v>
+        <v>0.5024038461538461</v>
       </c>
       <c r="H80">
-        <v>0.478</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5648148148148148</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="C81">
-        <v>0.4921790722761596</v>
+        <v>0.4963913392141139</v>
       </c>
       <c r="D81">
-        <v>0.6263736263736264</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="E81">
-        <v>0.5030978934324659</v>
+        <v>0.4945717732207479</v>
       </c>
       <c r="F81">
-        <v>0.4591836734693878</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="G81">
-        <v>0.5251533742331288</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="H81">
-        <v>0.484</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5288461538461539</v>
+        <v>0.5229357798165137</v>
       </c>
       <c r="C82">
-        <v>0.4924302788844622</v>
+        <v>0.4962904080551139</v>
       </c>
       <c r="D82">
-        <v>0.5058823529411764</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="E82">
-        <v>0.5018094089264173</v>
+        <v>0.5079171741778319</v>
       </c>
       <c r="F82">
-        <v>0.4096385542168675</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="G82">
-        <v>0.5266990291262136</v>
+        <v>0.4976359338061466</v>
       </c>
       <c r="H82">
-        <v>0.482</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.4791666666666667</v>
+        <v>0.46875</v>
       </c>
       <c r="C83">
-        <v>0.4951302974466965</v>
+        <v>0.4963215974776669</v>
       </c>
       <c r="D83">
-        <v>0.4936708860759494</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E83">
-        <v>0.511002444987775</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="F83">
-        <v>0.5238095238095238</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="G83">
-        <v>0.5308343409915357</v>
+        <v>0.4981818181818182</v>
       </c>
       <c r="H83">
-        <v>0.478</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,22 +2558,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5048543689320388</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="C84">
-        <v>0.4953002610966057</v>
+        <v>0.4966321243523316</v>
       </c>
       <c r="D84">
-        <v>0.4123711340206185</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E84">
-        <v>0.4944099378881988</v>
+        <v>0.5068836045056321</v>
       </c>
       <c r="F84">
-        <v>0.5227272727272727</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="G84">
-        <v>0.5209876543209877</v>
+        <v>0.5055487053020962</v>
       </c>
       <c r="H84">
         <v>0.49</v>
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5188679245283019</v>
+        <v>0.46</v>
       </c>
       <c r="C85">
-        <v>0.4953125</v>
+        <v>0.4963898916967509</v>
       </c>
       <c r="D85">
-        <v>0.4403669724770642</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="E85">
-        <v>0.4980842911877394</v>
+        <v>0.5069708491761724</v>
       </c>
       <c r="F85">
-        <v>0.5728155339805825</v>
+        <v>0.51</v>
       </c>
       <c r="G85">
-        <v>0.5168961201501877</v>
+        <v>0.50186799501868</v>
       </c>
       <c r="H85">
-        <v>0.478</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4396551724137931</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="C86">
-        <v>0.4968944099378882</v>
+        <v>0.4965605095541401</v>
       </c>
       <c r="D86">
-        <v>0.4033613445378151</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="E86">
-        <v>0.4974226804123711</v>
+        <v>0.5075187969924813</v>
       </c>
       <c r="F86">
-        <v>0.5370370370370371</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G86">
-        <v>0.5221238938053098</v>
+        <v>0.4993804213135068</v>
       </c>
       <c r="H86">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4273504273504273</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="C87">
-        <v>0.4996146930387876</v>
+        <v>0.4940279542566709</v>
       </c>
       <c r="D87">
-        <v>0.3551401869158878</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="E87">
-        <v>0.4993581514762516</v>
+        <v>0.5082592121982211</v>
       </c>
       <c r="F87">
-        <v>0.504950495049505</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G87">
-        <v>0.5226130653266332</v>
+        <v>0.4925742574257426</v>
       </c>
       <c r="H87">
-        <v>0.49</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4205607476635514</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C88">
-        <v>0.4992370295015259</v>
+        <v>0.4972375690607735</v>
       </c>
       <c r="D88">
-        <v>0.3809523809523809</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E88">
-        <v>0.5031446540880503</v>
+        <v>0.5012594458438288</v>
       </c>
       <c r="F88">
-        <v>0.4752475247524752</v>
+        <v>0.5</v>
       </c>
       <c r="G88">
-        <v>0.5198511166253101</v>
+        <v>0.4925925925925926</v>
       </c>
       <c r="H88">
-        <v>0.498</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.43</v>
+        <v>0.515625</v>
       </c>
       <c r="C89">
-        <v>0.4998746553020807</v>
+        <v>0.4961394769613948</v>
       </c>
       <c r="D89">
-        <v>0.422680412371134</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="E89">
-        <v>0.4887780548628429</v>
+        <v>0.508301404853129</v>
       </c>
       <c r="F89">
-        <v>0.4411764705882353</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="G89">
-        <v>0.5172839506172839</v>
+        <v>0.4963235294117647</v>
       </c>
       <c r="H89">
-        <v>0.508</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.4774774774774775</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C90">
-        <v>0.4993810349096311</v>
+        <v>0.4967853610286845</v>
       </c>
       <c r="D90">
-        <v>0.4827586206896552</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="E90">
-        <v>0.4834355828220859</v>
+        <v>0.5069532237673831</v>
       </c>
       <c r="F90">
-        <v>0.5</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="G90">
-        <v>0.5086206896551724</v>
+        <v>0.5024449877750611</v>
       </c>
       <c r="H90">
-        <v>0.516</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.4615384615384616</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="C91">
-        <v>0.4963163064833006</v>
+        <v>0.4949569495694957</v>
       </c>
       <c r="D91">
-        <v>0.4588235294117647</v>
+        <v>0.49</v>
       </c>
       <c r="E91">
-        <v>0.4746987951807229</v>
+        <v>0.5019157088122606</v>
       </c>
       <c r="F91">
-        <v>0.5</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="G91">
-        <v>0.5084541062801933</v>
+        <v>0.4975369458128079</v>
       </c>
       <c r="H91">
-        <v>0.518</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.4957264957264957</v>
+        <v>0.5420560747663551</v>
       </c>
       <c r="C92">
-        <v>0.495136186770428</v>
+        <v>0.4971930680986087</v>
       </c>
       <c r="D92">
-        <v>0.5257731958762887</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="E92">
-        <v>0.4789915966386555</v>
+        <v>0.491025641025641</v>
       </c>
       <c r="F92">
-        <v>0.5</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="G92">
-        <v>0.5109223300970874</v>
+        <v>0.4931335830212235</v>
       </c>
       <c r="H92">
-        <v>0.506</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4919354838709677</v>
+        <v>0.4579439252336449</v>
       </c>
       <c r="C93">
-        <v>0.493157262905162</v>
+        <v>0.4966297544535387</v>
       </c>
       <c r="D93">
-        <v>0.5340909090909091</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="E93">
-        <v>0.4775757575757576</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="F93">
-        <v>0.4883720930232558</v>
+        <v>0.5619047619047619</v>
       </c>
       <c r="G93">
-        <v>0.5190930787589498</v>
+        <v>0.5006242197253433</v>
       </c>
       <c r="H93">
-        <v>0.5</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4957264957264957</v>
+        <v>0.3909090909090909</v>
       </c>
       <c r="C94">
-        <v>0.4921203438395416</v>
+        <v>0.4988083889418494</v>
       </c>
       <c r="D94">
-        <v>0.4880952380952381</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="E94">
-        <v>0.4836363636363636</v>
+        <v>0.4975186104218362</v>
       </c>
       <c r="F94">
-        <v>0.5384615384615384</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="G94">
-        <v>0.5114320096269555</v>
+        <v>0.5067319461444308</v>
       </c>
       <c r="H94">
-        <v>0.518</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4905660377358491</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C95">
-        <v>0.4901728628936775</v>
+        <v>0.4992927864214993</v>
       </c>
       <c r="D95">
-        <v>0.5333333333333333</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="E95">
-        <v>0.4900990099009901</v>
+        <v>0.4969843184559711</v>
       </c>
       <c r="F95">
-        <v>0.5161290322580645</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="G95">
-        <v>0.5072992700729927</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="H95">
-        <v>0.522</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5566037735849056</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C96">
-        <v>0.4901269393511989</v>
+        <v>0.4983682983682984</v>
       </c>
       <c r="D96">
-        <v>0.5862068965517241</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="E96">
-        <v>0.4768041237113402</v>
+        <v>0.4933008526187576</v>
       </c>
       <c r="F96">
-        <v>0.4897959183673469</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="G96">
-        <v>0.5087939698492462</v>
+        <v>0.5179856115107914</v>
       </c>
       <c r="H96">
-        <v>0.524</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5603448275862069</v>
+        <v>0.495049504950495</v>
       </c>
       <c r="C97">
-        <v>0.4895055970149254</v>
+        <v>0.4959500115713955</v>
       </c>
       <c r="D97">
-        <v>0.591304347826087</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="E97">
-        <v>0.4689922480620155</v>
+        <v>0.4933171324422843</v>
       </c>
       <c r="F97">
-        <v>0.5922330097087378</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="G97">
-        <v>0.5157232704402516</v>
+        <v>0.5172004744958482</v>
       </c>
       <c r="H97">
-        <v>0.514</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5233644859813084</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="C98">
-        <v>0.4895833333333333</v>
+        <v>0.4949518127581459</v>
       </c>
       <c r="D98">
-        <v>0.5137614678899083</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="E98">
-        <v>0.4784810126582278</v>
+        <v>0.5006211180124224</v>
       </c>
       <c r="F98">
-        <v>0.5922330097087378</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="G98">
-        <v>0.5105328376703842</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="H98">
-        <v>0.516</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4864864864864865</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="C99">
-        <v>0.4914049965619986</v>
+        <v>0.4941926668184924</v>
       </c>
       <c r="D99">
-        <v>0.5</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E99">
-        <v>0.4842767295597484</v>
+        <v>0.4993757802746567</v>
       </c>
       <c r="F99">
-        <v>0.4795918367346939</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G99">
-        <v>0.5154894671623296</v>
+        <v>0.5091575091575091</v>
       </c>
       <c r="H99">
-        <v>0.508</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5132743362831859</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C100">
-        <v>0.4915832575068244</v>
+        <v>0.4944607732308388</v>
       </c>
       <c r="D100">
-        <v>0.4732142857142857</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E100">
-        <v>0.489821882951654</v>
+        <v>0.4881693648816937</v>
       </c>
       <c r="F100">
-        <v>0.4722222222222222</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="G100">
-        <v>0.5199004975124378</v>
+        <v>0.5165238678090576</v>
       </c>
       <c r="H100">
-        <v>0.52</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4905660377358491</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="C101">
-        <v>0.4908845374746793</v>
+        <v>0.4949449561896203</v>
       </c>
       <c r="D101">
-        <v>0.5423728813559322</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="E101">
-        <v>0.4843161856963614</v>
+        <v>0.491698595146871</v>
       </c>
       <c r="F101">
-        <v>0.4948453608247423</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="G101">
-        <v>0.5198511166253101</v>
+        <v>0.5123762376237624</v>
       </c>
       <c r="H101">
-        <v>0.518</v>
+        <v>0.486</v>
       </c>
     </row>
   </sheetData>
